--- a/GameData/地图配置.xlsx
+++ b/GameData/地图配置.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18530" windowHeight="7010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18525" windowHeight="7005"/>
   </bookViews>
   <sheets>
     <sheet name="地图配置" sheetId="2" r:id="rId1"/>
@@ -12,12 +12,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">地图配置!$F$1:$F$72</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="194">
   <si>
     <t>类名</t>
   </si>
@@ -146,12 +146,6 @@
     <t>AI_1:1</t>
   </si>
   <si>
-    <t>circle_2-1-1</t>
-  </si>
-  <si>
-    <t>circle_0-1-EB3324</t>
-  </si>
-  <si>
     <t>general</t>
   </si>
   <si>
@@ -161,33 +155,15 @@
     <t>cluster</t>
   </si>
   <si>
-    <t>circle_3-1-1</t>
-  </si>
-  <si>
     <t>none</t>
   </si>
   <si>
-    <t>circle_4-1-1</t>
-  </si>
-  <si>
-    <t>boss1-1-1</t>
-  </si>
-  <si>
     <t>boss</t>
   </si>
   <si>
-    <t>circle_5-1-1</t>
-  </si>
-  <si>
     <t>volley</t>
   </si>
   <si>
-    <t>circle_6-1-1</t>
-  </si>
-  <si>
-    <t>boss6-1-1</t>
-  </si>
-  <si>
     <t>500</t>
   </si>
   <si>
@@ -197,80 +173,467 @@
     <t>4</t>
   </si>
   <si>
-    <t>circle_8-1-1</t>
-  </si>
-  <si>
-    <t>circle_9-1-1</t>
-  </si>
-  <si>
-    <t>boss2-0.8-1</t>
-  </si>
-  <si>
-    <t>circle_0-0.8-EB3324</t>
-  </si>
-  <si>
     <t>3</t>
   </si>
   <si>
-    <t>circle_10-1-1</t>
-  </si>
-  <si>
     <t>split</t>
   </si>
   <si>
-    <t>boss3-1-1</t>
-  </si>
-  <si>
     <t>1</t>
   </si>
   <si>
     <t>timing</t>
   </si>
   <si>
-    <t>circle_7-1-1</t>
-  </si>
-  <si>
-    <t>boss4-1-1</t>
-  </si>
-  <si>
     <t>2</t>
   </si>
   <si>
     <t>random</t>
   </si>
   <si>
-    <t>boss5-0.8-1</t>
-  </si>
-  <si>
     <t>through</t>
   </si>
   <si>
     <t>laserStar</t>
   </si>
   <si>
-    <t>boss2-1-1</t>
-  </si>
-  <si>
     <t>littleStar</t>
   </si>
   <si>
-    <t>boss1-0.8-1</t>
-  </si>
-  <si>
-    <t>boss5-1-1</t>
+    <t>circle_1-0.11-F40824</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>circle_1-1-1B756E;circle_1-0.95-42D284;circle_1-0.93-9CA849;circle_1-0.91-FFFFCD;circle_1-0.86-FEED88;circle_1-0.81-FEFDA6;circle_1-0.79-FFFFCD;circle_1-0.73-BE8936;circle_1-0.68-FEEC88;circle_1-0.66-FEFDA6;circle_1-0.61-DBA958;circle_1-0.59-FFFFCD;circle_1-0.57-BD8936;circle_1-0.52-FEFDA6;circle_1-0.49-FEED88;circle_1-0.26-DAA857;circle_1-0.22-FFFFCD</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>circle_1-1-1B756E;circle_1-0.81-FEFDA6;circle_1-0.79-FFFFCD;circle_1-0.73-BE8936;circle_1-0.68-FEEC88;circle_1-0.66-FEFDA6;circle_1-0.61-DBA958;circle_1-0.59-FFFFCD;circle_1-0.57-BD8936;circle_1-0.52-FEFDA6;circle_1-0.26-DAA857;circle_1-0.22-FFFFCD</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>circle_1-1-1B756E;circle_1-0.95-42D284;circle_1-0.79-FFFFCD;circle_1-0.73-BE8936;circle_1-0.68-FEEC88;circle_1-0.66-FEFDA6;circle_1-0.61-DBA958;circle_1-0.59-FFFFCD;circle_1-0.57-BD8936;circle_1-0.49-FEED88;circle_1-0.26-DAA857;circle_1-0.22-FFFFCD</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>circle_1-1-1B756E;circle_1-0.95-42D284;circle_1-0.93-9CA849;circle_1-0.91-FFFFCD;circle_1-0.86-FEED88;circle_1-0.81-FEFDA6;circle_1-0.59-FFFFCD;circle_1-0.57-BD8936;circle_1-0.52-FEFDA6;circle_1-0.49-FEED88;circle_1-0.26-DAA857;circle_1-0.22-FFFFCD</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>circle_1-1-1B756E;circle_1-0.95-42D284;circle_1-0.93-9CA849;circle_1-0.91-FFFFCD;circle_1-0.73-BE8936;circle_1-0.68-FEEC88;circle_1-0.66-FEFDA6;circle_1-0.61-DBA958;circle_1-0.59-FFFFCD;circle_1-0.57-BD8936;circle_1-0.52-FEFDA6;circle_1-0.49-FEED88;circle_1-0.26-DAA857;circle_1-0.22-FFFFCD</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>circle_1-1-1B756E;circle_1-0.95-42D284;circle_1-0.93-9CA849;circle_1-0.91-FFFFCD;circle_1-0.86-FEED88;circle_1-0.81-FEFDA6;circle_1-0.79-FFFFCD;circle_1-0.73-BE8936;circle_1-0.68-FEEC88;circle_1-0.66-FEFDA6;circle_1-0.52-FEFDA6;circle_1-0.49-FEED88;circle_1-0.26-DAA857;circle_1-0.22-FFFFCD</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>circle_1-1-1B756E;circle_1-0.95-42D284;circle_1-0.93-9CA849;circle_1-0.91-FFFFCD;circle_1-0.86-FEED88;circle_1-0.49-FEED88;circle_1-0.26-DAA857;circle_1-0.22-FFFFCD</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>circle_1-1-1B756E;circle_1-0.95-42D284;circle_1-0.93-9CA849;circle_1-0.91-FFFFCD;circle_1-0.86-FEED88;circle_1-0.81-FEFDA6;circle_1-0.79-FFFFCD;circle_1-0.73-BE8936;circle_1-0.68-FEEC88;circle_1-0.66-FEFDA6;circle_1-0.61-DBA958;circle_1-0.59-FFFFCD;circle_1-0.57-BD8936;circle_1-0.52-FEFDA6;circle_1-0.49-FEED88;circle_1-0.26-DAA857;circle_1-0.22-FFFFCD</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>circle_1-1-1B756E;circle_1-0.95-42D284;circle_1-0.93-9CA849;circle_1-0.91-FFFFCD;circle_1-0.86-FEED88;circle_1-0.81-FEFDA6;circle_1-0.79-FFFFCD;circle_1-0.73-BE8936;circle_1-0.68-FEEC88;circle_1-0.66-FEFDA6;circle_1-0.61-DBA958;circle_1-0.59-FFFFCD;circle_1-0.57-BD8936;circle_1-0.52-FEFDA6;circle_1-0.49-FEED88;circle_1-0.26-DAA857;circle_1-0.23-FFFFCD</t>
+  </si>
+  <si>
+    <t>circle_1-1-1B756E;circle_1-0.95-42D284;circle_1-0.93-9CA849;circle_1-0.91-FFFFCD;circle_1-0.86-FEED88;circle_1-0.81-FEFDA6;circle_1-0.79-FFFFCD;circle_1-0.73-BE8936;circle_1-0.68-FEEC88;circle_1-0.66-FEFDA6;circle_1-0.61-DBA958;circle_1-0.59-FFFFCD;circle_1-0.57-BD8936;circle_1-0.52-FEFDA6;circle_1-0.49-FEED88;circle_1-0.26-DAA857;circle_1-0.24-FFFFCD</t>
+  </si>
+  <si>
+    <t>circle_1-1-1B756E;circle_1-0.95-42D284;circle_1-0.93-9CA849;circle_1-0.91-FFFFCD;circle_1-0.86-FEED88;circle_1-0.81-FEFDA6;circle_1-0.79-FFFFCD;circle_1-0.73-BE8936;circle_1-0.68-FEEC88;circle_1-0.66-FEFDA6;circle_1-0.61-DBA958;circle_1-0.59-FFFFCD;circle_1-0.57-BD8936;circle_1-0.52-FEFDA6;circle_1-0.49-FEED88;circle_1-0.26-DAA857;circle_1-0.25-FFFFCD</t>
+  </si>
+  <si>
+    <t>circle_1-1-1B756E;circle_1-0.95-42D284;circle_1-0.93-9CA849;circle_1-0.91-FFFFCD;circle_1-0.86-FEED88;circle_1-0.81-FEFDA6;circle_1-0.79-FFFFCD;circle_1-0.73-BE8936;circle_1-0.68-FEEC88;circle_1-0.66-FEFDA6;circle_1-0.61-DBA958;circle_1-0.59-FFFFCD;circle_1-0.57-BD8936;circle_1-0.52-FEFDA6;circle_1-0.49-FEED88;circle_1-0.26-DAA857;circle_1-0.26-FFFFCD</t>
+  </si>
+  <si>
+    <t>circle_1-1-1B756E;circle_1-0.95-42D284;circle_1-0.93-9CA849;circle_1-0.91-FFFFCD;circle_1-0.86-FEED88;circle_1-0.81-FEFDA6;circle_1-0.79-FFFFCD;circle_1-0.73-BE8936;circle_1-0.68-FEEC88;circle_1-0.66-FEFDA6;circle_1-0.61-DBA958;circle_1-0.59-FFFFCD;circle_1-0.57-BD8936;circle_1-0.52-FEFDA6;circle_1-0.49-FEED88;circle_1-0.26-DAA857;circle_1-0.27-FFFFCD</t>
+  </si>
+  <si>
+    <t>circle_1-1-1B756E;circle_1-0.95-42D284;circle_1-0.93-9CA849;circle_1-0.91-FFFFCD;circle_1-0.86-FEED88;circle_1-0.81-FEFDA6;circle_1-0.79-FFFFCD;circle_1-0.73-BE8936;circle_1-0.68-FEEC88;circle_1-0.66-FEFDA6;circle_1-0.61-DBA958;circle_1-0.59-FFFFCD;circle_1-0.57-BD8936;circle_1-0.52-FEFDA6;circle_1-0.49-FEED88;circle_1-0.26-DAA857;circle_1-0.28-FFFFCD</t>
+  </si>
+  <si>
+    <t>circle_1-1-1B756E;circle_1-0.95-42D284;circle_1-0.93-9CA849;circle_1-0.91-FFFFCD;circle_1-0.86-FEED88;circle_1-0.81-FEFDA6;circle_1-0.79-FFFFCD;circle_1-0.73-BE8936;circle_1-0.68-FEEC88;circle_1-0.66-FEFDA6;circle_1-0.61-DBA958;circle_1-0.59-FFFFCD;circle_1-0.57-BD8936;circle_1-0.52-FEFDA6;circle_1-0.49-FEED88;circle_1-0.26-DAA857;circle_1-0.29-FFFFCD</t>
+  </si>
+  <si>
+    <t>circle_1-1-1B756E;circle_1-0.95-42D284;circle_1-0.93-9CA849;circle_1-0.91-FFFFCD;circle_1-0.86-FEED88;circle_1-0.81-FEFDA6;circle_1-0.79-FFFFCD;circle_1-0.73-BE8936;circle_1-0.68-FEEC88;circle_1-0.66-FEFDA6;circle_1-0.61-DBA958;circle_1-0.59-FFFFCD;circle_1-0.57-BD8936;circle_1-0.52-FEFDA6;circle_1-0.49-FEED88;circle_1-0.26-DAA857;circle_1-0.30-FFFFCD</t>
+  </si>
+  <si>
+    <t>circle_1-1-1B756E;circle_1-0.95-42D284;circle_1-0.93-9CA849;circle_1-0.91-FFFFCD;circle_1-0.86-FEED88;circle_1-0.81-FEFDA6;circle_1-0.79-FFFFCD;circle_1-0.73-BE8936;circle_1-0.68-FEEC88;circle_1-0.66-FEFDA6;circle_1-0.61-DBA958;circle_1-0.59-FFFFCD;circle_1-0.57-BD8936;circle_1-0.52-FEFDA6;circle_1-0.49-FEED88;circle_1-0.26-DAA857;circle_1-0.31-FFFFCD</t>
+  </si>
+  <si>
+    <t>circle_1-1-1B756E;circle_1-0.95-42D284;circle_1-0.93-9CA849;circle_1-0.91-FFFFCD;circle_1-0.86-FEED88;circle_1-0.81-FEFDA6;circle_1-0.79-FFFFCD;circle_1-0.73-BE8936;circle_1-0.68-FEEC88;circle_1-0.66-FEFDA6;circle_1-0.61-DBA958;circle_1-0.59-FFFFCD;circle_1-0.57-BD8936;circle_1-0.52-FEFDA6;circle_1-0.49-FEED88;circle_1-0.26-DAA857;circle_1-0.32-FFFFCD</t>
+  </si>
+  <si>
+    <t>circle_1-1-1B756E;circle_1-0.95-42D284;circle_1-0.93-9CA849;circle_1-0.91-FFFFCD;circle_1-0.86-FEED88;circle_1-0.81-FEFDA6;circle_1-0.79-FFFFCD;circle_1-0.73-BE8936;circle_1-0.68-FEEC88;circle_1-0.66-FEFDA6;circle_1-0.61-DBA958;circle_1-0.59-FFFFCD;circle_1-0.57-BD8936;circle_1-0.52-FEFDA6;circle_1-0.49-FEED88;circle_1-0.26-DAA857;circle_1-0.33-FFFFCD</t>
+  </si>
+  <si>
+    <t>circle_1-1-1B756E;circle_1-0.95-42D284;circle_1-0.93-9CA849;circle_1-0.91-FFFFCD;circle_1-0.86-FEED88;circle_1-0.81-FEFDA6;circle_1-0.79-FFFFCD;circle_1-0.73-BE8936;circle_1-0.68-FEEC88;circle_1-0.66-FEFDA6;circle_1-0.61-DBA958;circle_1-0.59-FFFFCD;circle_1-0.57-BD8936;circle_1-0.52-FEFDA6;circle_1-0.49-FEED88;circle_1-0.26-DAA857;circle_1-0.34-FFFFCD</t>
+  </si>
+  <si>
+    <t>circle_1-1-1B756E;circle_1-0.95-42D284;circle_1-0.93-9CA849;circle_1-0.91-FFFFCD;circle_1-0.86-FEED88;circle_1-0.81-FEFDA6;circle_1-0.79-FFFFCD;circle_1-0.73-BE8936;circle_1-0.68-FEEC88;circle_1-0.66-FEFDA6;circle_1-0.61-DBA958;circle_1-0.59-FFFFCD;circle_1-0.57-BD8936;circle_1-0.52-FEFDA6;circle_1-0.49-FEED88;circle_1-0.26-DAA857;circle_1-0.35-FFFFCD</t>
+  </si>
+  <si>
+    <t>circle_1-1-1B756E;circle_1-0.95-42D284;circle_1-0.93-9CA849;circle_1-0.91-FFFFCD;circle_1-0.86-FEED88;circle_1-0.81-FEFDA6;circle_1-0.79-FFFFCD;circle_1-0.73-BE8936;circle_1-0.68-FEEC88;circle_1-0.66-FEFDA6;circle_1-0.61-DBA958;circle_1-0.59-FFFFCD;circle_1-0.57-BD8936;circle_1-0.52-FEFDA6;circle_1-0.49-FEED88;circle_1-0.26-DAA857;circle_1-0.36-FFFFCD</t>
+  </si>
+  <si>
+    <t>circle_1-1-1B756E;circle_1-0.95-42D284;circle_1-0.93-9CA849;circle_1-0.91-FFFFCD;circle_1-0.86-FEED88;circle_1-0.81-FEFDA6;circle_1-0.79-FFFFCD;circle_1-0.73-BE8936;circle_1-0.68-FEEC88;circle_1-0.66-FEFDA6;circle_1-0.61-DBA958;circle_1-0.59-FFFFCD;circle_1-0.57-BD8936;circle_1-0.52-FEFDA6;circle_1-0.49-FEED88;circle_1-0.26-DAA857;circle_1-0.37-FFFFCD</t>
+  </si>
+  <si>
+    <t>circle_1-1-1B756E;circle_1-0.95-42D284;circle_1-0.93-9CA849;circle_1-0.91-FFFFCD;circle_1-0.86-FEED88;circle_1-0.81-FEFDA6;circle_1-0.79-FFFFCD;circle_1-0.73-BE8936;circle_1-0.68-FEEC88;circle_1-0.66-FEFDA6;circle_1-0.61-DBA958;circle_1-0.59-FFFFCD;circle_1-0.57-BD8936;circle_1-0.52-FEFDA6;circle_1-0.49-FEED88;circle_1-0.26-DAA857;circle_1-0.38-FFFFCD</t>
+  </si>
+  <si>
+    <t>circle_1-1-1B756E;circle_1-0.95-42D284;circle_1-0.93-9CA849;circle_1-0.91-FFFFCD;circle_1-0.86-FEED88;circle_1-0.81-FEFDA6;circle_1-0.79-FFFFCD;circle_1-0.73-BE8936;circle_1-0.68-FEEC88;circle_1-0.66-FEFDA6;circle_1-0.61-DBA958;circle_1-0.59-FFFFCD;circle_1-0.57-BD8936;circle_1-0.52-FEFDA6;circle_1-0.49-FEED88;circle_1-0.26-DAA857;circle_1-0.39-FFFFCD</t>
+  </si>
+  <si>
+    <t>circle_1-1-1B756E;circle_1-0.95-42D284;circle_1-0.93-9CA849;circle_1-0.91-FFFFCD;circle_1-0.86-FEED88;circle_1-0.81-FEFDA6;circle_1-0.79-FFFFCD;circle_1-0.73-BE8936;circle_1-0.68-FEEC88;circle_1-0.66-FEFDA6;circle_1-0.61-DBA958;circle_1-0.59-FFFFCD;circle_1-0.57-BD8936;circle_1-0.52-FEFDA6;circle_1-0.49-FEED88;circle_1-0.26-DAA857;circle_1-0.40-FFFFCD</t>
+  </si>
+  <si>
+    <t>circle_1-1-1B756E;circle_1-0.95-42D284;circle_1-0.93-9CA849;circle_1-0.91-FFFFCD;circle_1-0.86-FEED88;circle_1-0.81-FEFDA6;circle_1-0.79-FFFFCD;circle_1-0.73-BE8936;circle_1-0.68-FEEC88;circle_1-0.66-FEFDA6;circle_1-0.61-DBA958;circle_1-0.59-FFFFCD;circle_1-0.57-BD8936;circle_1-0.52-FEFDA6;circle_1-0.49-FEED88;circle_1-0.26-DAA857;circle_1-0.41-FFFFCD</t>
+  </si>
+  <si>
+    <t>circle_1-1-1B756E;circle_1-0.95-42D284;circle_1-0.93-9CA849;circle_1-0.91-FFFFCD;circle_1-0.86-FEED88;circle_1-0.81-FEFDA6;circle_1-0.79-FFFFCD;circle_1-0.73-BE8936;circle_1-0.68-FEEC88;circle_1-0.66-FEFDA6;circle_1-0.61-DBA958;circle_1-0.59-FFFFCD;circle_1-0.57-BD8936;circle_1-0.52-FEFDA6;circle_1-0.49-FEED88;circle_1-0.26-DAA857;circle_1-0.42-FFFFCD</t>
+  </si>
+  <si>
+    <t>circle_1-1-1B756E;circle_1-0.95-42D284;circle_1-0.93-9CA849;circle_1-0.91-FFFFCD;circle_1-0.86-FEED88;circle_1-0.81-FEFDA6;circle_1-0.79-FFFFCD;circle_1-0.73-BE8936;circle_1-0.68-FEEC88;circle_1-0.66-FEFDA6;circle_1-0.61-DBA958;circle_1-0.59-FFFFCD;circle_1-0.57-BD8936;circle_1-0.52-FEFDA6;circle_1-0.49-FEED88;circle_1-0.26-DAA857;circle_1-0.43-FFFFCD</t>
+  </si>
+  <si>
+    <t>circle_1-1-1B756E;circle_1-0.95-42D284;circle_1-0.93-9CA849;circle_1-0.91-FFFFCD;circle_1-0.86-FEED88;circle_1-0.81-FEFDA6;circle_1-0.79-FFFFCD;circle_1-0.73-BE8936;circle_1-0.68-FEEC88;circle_1-0.66-FEFDA6;circle_1-0.61-DBA958;circle_1-0.59-FFFFCD;circle_1-0.57-BD8936;circle_1-0.52-FEFDA6;circle_1-0.49-FEED88;circle_1-0.26-DAA857;circle_1-0.44-FFFFCD</t>
+  </si>
+  <si>
+    <t>circle_1-1-1B756E;circle_1-0.95-42D284;circle_1-0.93-9CA849;circle_1-0.91-FFFFCD;circle_1-0.86-FEED88;circle_1-0.81-FEFDA6;circle_1-0.79-FFFFCD;circle_1-0.73-BE8936;circle_1-0.68-FEEC88;circle_1-0.66-FEFDA6;circle_1-0.61-DBA958;circle_1-0.59-FFFFCD;circle_1-0.57-BD8936;circle_1-0.52-FEFDA6;circle_1-0.49-FEED88;circle_1-0.26-DAA857;circle_1-0.45-FFFFCD</t>
+  </si>
+  <si>
+    <t>circle_1-1-1B756E;circle_1-0.95-42D284;circle_1-0.93-9CA849;circle_1-0.91-FFFFCD;circle_1-0.86-FEED88;circle_1-0.81-FEFDA6;circle_1-0.79-FFFFCD;circle_1-0.73-BE8936;circle_1-0.68-FEEC88;circle_1-0.66-FEFDA6;circle_1-0.61-DBA958;circle_1-0.59-FFFFCD;circle_1-0.57-BD8936;circle_1-0.52-FEFDA6;circle_1-0.49-FEED88;circle_1-0.26-DAA857;circle_1-0.46-FFFFCD</t>
+  </si>
+  <si>
+    <t>circle_1-1-1B756E;circle_1-0.95-42D284;circle_1-0.93-9CA849;circle_1-0.91-FFFFCD;circle_1-0.86-FEED88;circle_1-0.81-FEFDA6;circle_1-0.79-FFFFCD;circle_1-0.73-BE8936;circle_1-0.68-FEEC88;circle_1-0.66-FEFDA6;circle_1-0.61-DBA958;circle_1-0.59-FFFFCD;circle_1-0.57-BD8936;circle_1-0.52-FEFDA6;circle_1-0.49-FEED88;circle_1-0.26-DAA857;circle_1-0.47-FFFFCD</t>
+  </si>
+  <si>
+    <t>circle_1-1-1B756E;circle_1-0.95-42D284;circle_1-0.93-9CA849;circle_1-0.91-FFFFCD;circle_1-0.86-FEED88;circle_1-0.81-FEFDA6;circle_1-0.79-FFFFCD;circle_1-0.73-BE8936;circle_1-0.68-FEEC88;circle_1-0.66-FEFDA6;circle_1-0.61-DBA958;circle_1-0.59-FFFFCD;circle_1-0.57-BD8936;circle_1-0.52-FEFDA6;circle_1-0.49-FEED88;circle_1-0.26-DAA857;circle_1-0.48-FFFFCD</t>
+  </si>
+  <si>
+    <t>circle_1-1-1B756E;circle_1-0.95-42D284;circle_1-0.93-9CA849;circle_1-0.91-FFFFCD;circle_1-0.86-FEED88;circle_1-0.81-FEFDA6;circle_1-0.79-FFFFCD;circle_1-0.73-BE8936;circle_1-0.68-FEEC88;circle_1-0.66-FEFDA6;circle_1-0.61-DBA958;circle_1-0.59-FFFFCD;circle_1-0.57-BD8936;circle_1-0.52-FEFDA6;circle_1-0.49-FEED88;circle_1-0.26-DAA857;circle_1-0.49-FFFFCD</t>
+  </si>
+  <si>
+    <t>circle_1-1-1B756E;circle_1-0.95-42D284;circle_1-0.93-9CA849;circle_1-0.91-FFFFCD;circle_1-0.86-FEED88;circle_1-0.81-FEFDA6;circle_1-0.79-FFFFCD;circle_1-0.73-BE8936;circle_1-0.68-FEEC88;circle_1-0.66-FEFDA6;circle_1-0.61-DBA958;circle_1-0.59-FFFFCD;circle_1-0.57-BD8936;circle_1-0.52-FEFDA6;circle_1-0.49-FEED88;circle_1-0.26-DAA857;circle_1-0.50-FFFFCD</t>
+  </si>
+  <si>
+    <t>circle_1-1-1B756E;circle_1-0.95-42D284;circle_1-0.93-9CA849;circle_1-0.91-FFFFCD;circle_1-0.86-FEED88;circle_1-0.81-FEFDA6;circle_1-0.79-FFFFCD;circle_1-0.73-BE8936;circle_1-0.68-FEEC88;circle_1-0.66-FEFDA6;circle_1-0.61-DBA958;circle_1-0.59-FFFFCD;circle_1-0.57-BD8936;circle_1-0.52-FEFDA6;circle_1-0.49-FEED88;circle_1-0.26-DAA857;circle_1-0.51-FFFFCD</t>
+  </si>
+  <si>
+    <t>circle_1-1-1B756E;circle_1-0.95-42D284;circle_1-0.93-9CA849;circle_1-0.91-FFFFCD;circle_1-0.86-FEED88;circle_1-0.81-FEFDA6;circle_1-0.79-FFFFCD;circle_1-0.73-BE8936;circle_1-0.68-FEEC88;circle_1-0.66-FEFDA6;circle_1-0.61-DBA958;circle_1-0.59-FFFFCD;circle_1-0.57-BD8936;circle_1-0.52-FEFDA6;circle_1-0.49-FEED88;circle_1-0.26-DAA857;circle_1-0.52-FFFFCD</t>
+  </si>
+  <si>
+    <t>circle_1-1-1B756E;circle_1-0.95-42D284;circle_1-0.93-9CA849;circle_1-0.91-FFFFCD;circle_1-0.86-FEED88;circle_1-0.81-FEFDA6;circle_1-0.79-FFFFCD;circle_1-0.73-BE8936;circle_1-0.68-FEEC88;circle_1-0.66-FEFDA6;circle_1-0.61-DBA958;circle_1-0.59-FFFFCD;circle_1-0.57-BD8936;circle_1-0.52-FEFDA6;circle_1-0.49-FEED88;circle_1-0.26-DAA857;circle_1-0.53-FFFFCD</t>
+  </si>
+  <si>
+    <t>circle_1-1-1B756E;circle_1-0.95-42D284;circle_1-0.93-9CA849;circle_1-0.91-FFFFCD;circle_1-0.86-FEED88;circle_1-0.81-FEFDA6;circle_1-0.79-FFFFCD;circle_1-0.73-BE8936;circle_1-0.68-FEEC88;circle_1-0.66-FEFDA6;circle_1-0.61-DBA958;circle_1-0.59-FFFFCD;circle_1-0.57-BD8936;circle_1-0.52-FEFDA6;circle_1-0.49-FEED88;circle_1-0.26-DAA857;circle_1-0.54-FFFFCD</t>
+  </si>
+  <si>
+    <t>circle_1-1-1B756E;circle_1-0.95-42D284;circle_1-0.93-9CA849;circle_1-0.91-FFFFCD;circle_1-0.86-FEED88;circle_1-0.81-FEFDA6;circle_1-0.79-FFFFCD;circle_1-0.73-BE8936;circle_1-0.68-FEEC88;circle_1-0.66-FEFDA6;circle_1-0.61-DBA958;circle_1-0.59-FFFFCD;circle_1-0.57-BD8936;circle_1-0.52-FEFDA6;circle_1-0.49-FEED88;circle_1-0.26-DAA857;circle_1-0.55-FFFFCD</t>
+  </si>
+  <si>
+    <t>circle_1-1-1B756E;circle_1-0.95-42D284;circle_1-0.93-9CA849;circle_1-0.91-FFFFCD;circle_1-0.86-FEED88;circle_1-0.81-FEFDA6;circle_1-0.79-FFFFCD;circle_1-0.73-BE8936;circle_1-0.68-FEEC88;circle_1-0.66-FEFDA6;circle_1-0.61-DBA958;circle_1-0.59-FFFFCD;circle_1-0.57-BD8936;circle_1-0.52-FEFDA6;circle_1-0.49-FEED88;circle_1-0.26-DAA857;circle_1-0.56-FFFFCD</t>
+  </si>
+  <si>
+    <t>circle_1-1-1B756E;circle_1-0.95-42D284;circle_1-0.93-9CA849;circle_1-0.91-FFFFCD;circle_1-0.86-FEED88;circle_1-0.81-FEFDA6;circle_1-0.79-FFFFCD;circle_1-0.73-BE8936;circle_1-0.68-FEEC88;circle_1-0.66-FEFDA6;circle_1-0.61-DBA958;circle_1-0.59-FFFFCD;circle_1-0.57-BD8936;circle_1-0.52-FEFDA6;circle_1-0.49-FEED88;circle_1-0.26-DAA857;circle_1-0.57-FFFFCD</t>
+  </si>
+  <si>
+    <t>circle_1-1-1B756E;circle_1-0.95-42D284;circle_1-0.93-9CA849;circle_1-0.91-FFFFCD;circle_1-0.86-FEED88;circle_1-0.81-FEFDA6;circle_1-0.79-FFFFCD;circle_1-0.73-BE8936;circle_1-0.68-FEEC88;circle_1-0.66-FEFDA6;circle_1-0.61-DBA958;circle_1-0.59-FFFFCD;circle_1-0.57-BD8936;circle_1-0.52-FEFDA6;circle_1-0.49-FEED88;circle_1-0.26-DAA857;circle_1-0.58-FFFFCD</t>
+  </si>
+  <si>
+    <t>circle_1-1-1B756E;circle_1-0.95-42D284;circle_1-0.93-9CA849;circle_1-0.91-FFFFCD;circle_1-0.86-FEED88;circle_1-0.81-FEFDA6;circle_1-0.79-FFFFCD;circle_1-0.73-BE8936;circle_1-0.68-FEEC88;circle_1-0.66-FEFDA6;circle_1-0.61-DBA958;circle_1-0.59-FFFFCD;circle_1-0.57-BD8936;circle_1-0.52-FEFDA6;circle_1-0.49-FEED88;circle_1-0.26-DAA857;circle_1-0.59-FFFFCD</t>
+  </si>
+  <si>
+    <t>circle_1-1-1B756E;circle_1-0.95-42D284;circle_1-0.93-9CA849;circle_1-0.91-FFFFCD;circle_1-0.86-FEED88;circle_1-0.81-FEFDA6;circle_1-0.79-FFFFCD;circle_1-0.73-BE8936;circle_1-0.68-FEEC88;circle_1-0.66-FEFDA6;circle_1-0.61-DBA958;circle_1-0.59-FFFFCD;circle_1-0.57-BD8936;circle_1-0.52-FEFDA6;circle_1-0.49-FEED88;circle_1-0.26-DAA857;circle_1-0.60-FFFFCD</t>
+  </si>
+  <si>
+    <t>circle_1-1-1B756E;circle_1-0.95-42D284;circle_1-0.93-9CA849;circle_1-0.91-FFFFCD;circle_1-0.86-FEED88;circle_1-0.81-FEFDA6;circle_1-0.79-FFFFCD;circle_1-0.73-BE8936;circle_1-0.68-FEEC88;circle_1-0.66-FEFDA6;circle_1-0.61-DBA958;circle_1-0.59-FFFFCD;circle_1-0.57-BD8936;circle_1-0.52-FEFDA6;circle_1-0.49-FEED88;circle_1-0.26-DAA857;circle_1-0.61-FFFFCD</t>
+  </si>
+  <si>
+    <t>circle_1-1-1B756E;circle_1-0.95-42D284;circle_1-0.93-9CA849;circle_1-0.91-FFFFCD;circle_1-0.86-FEED88;circle_1-0.81-FEFDA6;circle_1-0.79-FFFFCD;circle_1-0.73-BE8936;circle_1-0.68-FEEC88;circle_1-0.66-FEFDA6;circle_1-0.61-DBA958;circle_1-0.59-FFFFCD;circle_1-0.57-BD8936;circle_1-0.52-FEFDA6;circle_1-0.49-FEED88;circle_1-0.26-DAA857;circle_1-0.62-FFFFCD</t>
+  </si>
+  <si>
+    <t>circle_1-1-1B756E;circle_1-0.95-42D284;circle_1-0.93-9CA849;circle_1-0.91-FFFFCD;circle_1-0.86-FEED88;circle_1-0.81-FEFDA6;circle_1-0.79-FFFFCD;circle_1-0.73-BE8936;circle_1-0.68-FEEC88;circle_1-0.66-FEFDA6;circle_1-0.61-DBA958;circle_1-0.59-FFFFCD;circle_1-0.57-BD8936;circle_1-0.52-FEFDA6;circle_1-0.49-FEED88;circle_1-0.26-DAA857;circle_1-0.63-FFFFCD</t>
+  </si>
+  <si>
+    <t>circle_1-1-1B756E;circle_1-0.95-42D284;circle_1-0.93-9CA849;circle_1-0.91-FFFFCD;circle_1-0.86-FEED88;circle_1-0.81-FEFDA6;circle_1-0.79-FFFFCD;circle_1-0.73-BE8936;circle_1-0.68-FEEC88;circle_1-0.66-FEFDA6;circle_1-0.61-DBA958;circle_1-0.59-FFFFCD;circle_1-0.57-BD8936;circle_1-0.52-FEFDA6;circle_1-0.49-FEED88;circle_1-0.26-DAA857;circle_1-0.64-FFFFCD</t>
+  </si>
+  <si>
+    <t>circle_1-1-1B756E;circle_1-0.95-42D284;circle_1-0.93-9CA849;circle_1-0.91-FFFFCD;circle_1-0.86-FEED88;circle_1-0.81-FEFDA6;circle_1-0.79-FFFFCD;circle_1-0.73-BE8936;circle_1-0.68-FEEC88;circle_1-0.66-FEFDA6;circle_1-0.61-DBA958;circle_1-0.59-FFFFCD;circle_1-0.57-BD8936;circle_1-0.52-FEFDA6;circle_1-0.49-FEED88;circle_1-0.26-DAA857;circle_1-0.65-FFFFCD</t>
+  </si>
+  <si>
+    <t>circle_1-1-1B756E;circle_1-0.95-42D284;circle_1-0.93-9CA849;circle_1-0.91-FFFFCD;circle_1-0.86-FEED88;circle_1-0.81-FEFDA6;circle_1-0.79-FFFFCD;circle_1-0.73-BE8936;circle_1-0.68-FEEC88;circle_1-0.66-FEFDA6;circle_1-0.61-DBA958;circle_1-0.59-FFFFCD;circle_1-0.57-BD8936;circle_1-0.52-FEFDA6;circle_1-0.49-FEED88;circle_1-0.26-DAA857;circle_1-0.66-FFFFCD</t>
+  </si>
+  <si>
+    <t>circle_1-1-1B756E;circle_1-0.95-42D284;circle_1-0.93-9CA849;circle_1-0.91-FFFFCD;circle_1-0.86-FEED88;circle_1-0.81-FEFDA6;circle_1-0.79-FFFFCD;circle_1-0.73-BE8936;circle_1-0.68-FEEC88;circle_1-0.66-FEFDA6;circle_1-0.61-DBA958;circle_1-0.59-FFFFCD;circle_1-0.57-BD8936;circle_1-0.52-FEFDA6;circle_1-0.49-FEED88;circle_1-0.26-DAA857;circle_1-0.67-FFFFCD</t>
+  </si>
+  <si>
+    <t>circle_1-1-1B756E;circle_1-0.95-42D284;circle_1-0.93-9CA849;circle_1-0.91-FFFFCD;circle_1-0.86-FEED88;circle_1-0.81-FEFDA6;circle_1-0.79-FFFFCD;circle_1-0.73-BE8936;circle_1-0.68-FEEC88;circle_1-0.66-FEFDA6;circle_1-0.61-DBA958;circle_1-0.59-FFFFCD;circle_1-0.57-BD8936;circle_1-0.52-FEFDA6;circle_1-0.49-FEED88;circle_1-0.26-DAA857;circle_1-0.68-FFFFCD</t>
+  </si>
+  <si>
+    <t>circle_1-1-1B756E;circle_1-0.95-42D284;circle_1-0.93-9CA849;circle_1-0.91-FFFFCD;circle_1-0.86-FEED88;circle_1-0.81-FEFDA6;circle_1-0.79-FFFFCD;circle_1-0.73-BE8936;circle_1-0.68-FEEC88;circle_1-0.66-FEFDA6;circle_1-0.61-DBA958;circle_1-0.59-FFFFCD;circle_1-0.57-BD8936;circle_1-0.52-FEFDA6;circle_1-0.49-FEED88;circle_1-0.26-DAA857;circle_1-0.69-FFFFCD</t>
+  </si>
+  <si>
+    <t>circle_1-1-1B756E;circle_1-0.95-42D284;circle_1-0.93-9CA849;circle_1-0.91-FFFFCD;circle_1-0.86-FEED88;circle_1-0.81-FEFDA6;circle_1-0.79-FFFFCD;circle_1-0.73-BE8936;circle_1-0.68-FEEC88;circle_1-0.66-FEFDA6;circle_1-0.61-DBA958;circle_1-0.59-FFFFCD;circle_1-0.57-BD8936;circle_1-0.52-FEFDA6;circle_1-0.49-FEED88;circle_1-0.26-DAA857;circle_1-0.70-FFFFCD</t>
+  </si>
+  <si>
+    <t>circle_1-1-1B756E;circle_1-0.95-42D284;circle_1-0.93-9CA849;circle_1-0.91-FFFFCD;circle_1-0.86-FEED88;circle_1-0.81-FEFDA6;circle_1-0.79-FFFFCD;circle_1-0.73-BE8936;circle_1-0.68-FEEC88;circle_1-0.66-FEFDA6;circle_1-0.61-DBA958;circle_1-0.59-FFFFCD;circle_1-0.57-BD8936;circle_1-0.52-FEFDA6;circle_1-0.49-FEED88;circle_1-0.26-DAA857;circle_1-0.71-FFFFCD</t>
+  </si>
+  <si>
+    <t>circle_1-1-1B756E;circle_1-0.95-42D284;circle_1-0.93-9CA849;circle_1-0.91-FFFFCD;circle_1-0.86-FEED88;circle_1-0.81-FEFDA6;circle_1-0.79-FFFFCD;circle_1-0.73-BE8936;circle_1-0.68-FEEC88;circle_1-0.66-FEFDA6;circle_1-0.61-DBA958;circle_1-0.59-FFFFCD;circle_1-0.57-BD8936;circle_1-0.52-FEFDA6;circle_1-0.49-FEED88;circle_1-0.26-DAA857;circle_1-0.72-FFFFCD</t>
+  </si>
+  <si>
+    <t>circle_1-1-1B756E;circle_1-0.95-42D284;circle_1-0.93-9CA849;circle_1-0.91-FFFFCD;circle_1-0.86-FEED88;circle_1-0.81-FEFDA6;circle_1-0.79-FFFFCD;circle_1-0.73-BE8936;circle_1-0.68-FEEC88;circle_1-0.66-FEFDA6;circle_1-0.61-DBA958;circle_1-0.59-FFFFCD;circle_1-0.57-BD8936;circle_1-0.52-FEFDA6;circle_1-0.49-FEED88;circle_1-0.26-DAA857;circle_1-0.73-FFFFCD</t>
+  </si>
+  <si>
+    <t>circle_1-1-1B756E;circle_1-0.95-42D284;circle_1-0.93-9CA849;circle_1-0.91-FFFFCD;circle_1-0.86-FEED88;circle_1-0.81-FEFDA6;circle_1-0.79-FFFFCD;circle_1-0.73-BE8936;circle_1-0.68-FEEC88;circle_1-0.66-FEFDA6;circle_1-0.61-DBA958;circle_1-0.59-FFFFCD;circle_1-0.57-BD8936;circle_1-0.52-FEFDA6;circle_1-0.49-FEED88;circle_1-0.26-DAA857;circle_1-0.74-FFFFCD</t>
+  </si>
+  <si>
+    <t>circle_1-1-1B756E;circle_1-0.95-42D284;circle_1-0.93-9CA849;circle_1-0.91-FFFFCD;circle_1-0.86-FEED88;circle_1-0.81-FEFDA6;circle_1-0.79-FFFFCD;circle_1-0.73-BE8936;circle_1-0.68-FEEC88;circle_1-0.66-FEFDA6;circle_1-0.61-DBA958;circle_1-0.59-FFFFCD;circle_1-0.57-BD8936;circle_1-0.52-FEFDA6;circle_1-0.49-FEED88;circle_1-0.26-DAA857;circle_1-0.75-FFFFCD</t>
+  </si>
+  <si>
+    <t>circle_1-1-1B756E;circle_1-0.95-42D284;circle_1-0.93-9CA849;circle_1-0.91-FFFFCD;circle_1-0.86-FEED88;circle_1-0.81-FEFDA6;circle_1-0.79-FFFFCD;circle_1-0.73-BE8936;circle_1-0.68-FEEC88;circle_1-0.66-FEFDA6;circle_1-0.61-DBA958;circle_1-0.59-FFFFCD;circle_1-0.57-BD8936;circle_1-0.52-FEFDA6;circle_1-0.49-FEED88;circle_1-0.26-DAA857;circle_1-0.76-FFFFCD</t>
+  </si>
+  <si>
+    <t>circle_1-1-1B756E;circle_1-0.95-42D284;circle_1-0.93-9CA849;circle_1-0.91-FFFFCD;circle_1-0.86-FEED88;circle_1-0.81-FEFDA6;circle_1-0.79-FFFFCD;circle_1-0.73-BE8936;circle_1-0.68-FEEC88;circle_1-0.66-FEFDA6;circle_1-0.61-DBA958;circle_1-0.59-FFFFCD;circle_1-0.57-BD8936;circle_1-0.52-FEFDA6;circle_1-0.49-FEED88;circle_1-0.26-DAA857;circle_1-0.77-FFFFCD</t>
+  </si>
+  <si>
+    <t>circle_1-1-1B756E;circle_1-0.95-42D284;circle_1-0.93-9CA849;circle_1-0.91-FFFFCD;circle_1-0.86-FEED88;circle_1-0.81-FEFDA6;circle_1-0.79-FFFFCD;circle_1-0.73-BE8936;circle_1-0.68-FEEC88;circle_1-0.66-FEFDA6;circle_1-0.61-DBA958;circle_1-0.59-FFFFCD;circle_1-0.57-BD8936;circle_1-0.52-FEFDA6;circle_1-0.49-FEED88;circle_1-0.26-DAA857;circle_1-0.78-FFFFCD</t>
+  </si>
+  <si>
+    <t>circle_1-1-1B756E;circle_1-0.95-42D284;circle_1-0.93-9CA849;circle_1-0.91-FFFFCD;circle_1-0.86-FEED88;circle_1-0.81-FEFDA6;circle_1-0.79-FFFFCD;circle_1-0.73-BE8936;circle_1-0.68-FEEC88;circle_1-0.66-FEFDA6;circle_1-0.61-DBA958;circle_1-0.59-FFFFCD;circle_1-0.57-BD8936;circle_1-0.52-FEFDA6;circle_1-0.49-FEED88;circle_1-0.26-DAA857;circle_1-0.79-FFFFCD</t>
+  </si>
+  <si>
+    <t>circle_1-1-1B756E;circle_1-0.95-42D284;circle_1-0.93-9CA849;circle_1-0.91-FFFFCD;circle_1-0.86-FEED88;circle_1-0.81-FEFDA6;circle_1-0.79-FFFFCD;circle_1-0.73-BE8936;circle_1-0.68-FEEC88;circle_1-0.66-FEFDA6;circle_1-0.61-DBA958;circle_1-0.59-FFFFCD;circle_1-0.57-BD8936;circle_1-0.52-FEFDA6;circle_1-0.49-FEED88;circle_1-0.26-DAA857;circle_1-0.80-FFFFCD</t>
+  </si>
+  <si>
+    <t>circle_1-1-1B756E;circle_1-0.95-42D284;circle_1-0.93-9CA849;circle_1-0.91-FFFFCD;circle_1-0.86-FEED88;circle_1-0.81-FEFDA6;circle_1-0.79-FFFFCD;circle_1-0.73-BE8936;circle_1-0.68-FEEC88;circle_1-0.66-FEFDA6;circle_1-0.61-DBA958;circle_1-0.59-FFFFCD;circle_1-0.57-BD8936;circle_1-0.52-FEFDA6;circle_1-0.49-FEED88;circle_1-0.26-DAA857;circle_1-0.81-FFFFCD</t>
+  </si>
+  <si>
+    <t>circle_1-1-1B756E;circle_1-0.95-42D284;circle_1-0.93-9CA849;circle_1-0.91-FFFFCD;circle_1-0.86-FEED88;circle_1-0.81-FEFDA6;circle_1-0.79-FFFFCD;circle_1-0.73-BE8936;circle_1-0.68-FEEC88;circle_1-0.66-FEFDA6;circle_1-0.61-DBA958;circle_1-0.59-FFFFCD;circle_1-0.57-BD8936;circle_1-0.52-FEFDA6;circle_1-0.49-FEED88;circle_1-0.26-DAA857;circle_1-0.82-FFFFCD</t>
+  </si>
+  <si>
+    <t>circle_1-1-1B756E;circle_1-0.95-42D284;circle_1-0.93-9CA849;circle_1-0.91-FFFFCD;circle_1-0.86-FEED88;circle_1-0.81-FEFDA6;circle_1-0.79-FFFFCD;circle_1-0.73-BE8936;circle_1-0.68-FEEC88;circle_1-0.66-FEFDA6;circle_1-0.61-DBA958;circle_1-0.59-FFFFCD;circle_1-0.57-BD8936;circle_1-0.52-FEFDA6;circle_1-0.49-FEED88;circle_1-0.26-DAA857;circle_1-0.83-FFFFCD</t>
+  </si>
+  <si>
+    <t>circle_1-1-1B756E;circle_1-0.95-42D284;circle_1-0.93-9CA849;circle_1-0.91-FFFFCD;circle_1-0.86-FEED88;circle_1-0.81-FEFDA6;circle_1-0.79-FFFFCD;circle_1-0.73-BE8936;circle_1-0.68-FEEC88;circle_1-0.66-FEFDA6;circle_1-0.61-DBA958;circle_1-0.59-FFFFCD;circle_1-0.57-BD8936;circle_1-0.52-FEFDA6;circle_1-0.49-FEED88;circle_1-0.26-DAA857;circle_1-0.84-FFFFCD</t>
+  </si>
+  <si>
+    <t>circle_1-0.11-F40825</t>
+  </si>
+  <si>
+    <t>circle_1-0.11-F40826</t>
+  </si>
+  <si>
+    <t>circle_1-0.11-F40827</t>
+  </si>
+  <si>
+    <t>circle_1-0.11-F40828</t>
+  </si>
+  <si>
+    <t>circle_1-0.11-F40829</t>
+  </si>
+  <si>
+    <t>circle_1-0.11-F40830</t>
+  </si>
+  <si>
+    <t>circle_1-0.11-F40831</t>
+  </si>
+  <si>
+    <t>circle_1-0.11-F40832</t>
+  </si>
+  <si>
+    <t>circle_1-0.11-F40833</t>
+  </si>
+  <si>
+    <t>circle_1-0.11-F40834</t>
+  </si>
+  <si>
+    <t>circle_1-0.11-F40835</t>
+  </si>
+  <si>
+    <t>circle_1-0.11-F40836</t>
+  </si>
+  <si>
+    <t>circle_1-0.11-F40837</t>
+  </si>
+  <si>
+    <t>circle_1-0.11-F40838</t>
+  </si>
+  <si>
+    <t>circle_1-0.11-F40839</t>
+  </si>
+  <si>
+    <t>circle_1-0.11-F40840</t>
+  </si>
+  <si>
+    <t>circle_1-0.11-F40841</t>
+  </si>
+  <si>
+    <t>circle_1-0.11-F40842</t>
+  </si>
+  <si>
+    <t>circle_1-0.11-F40843</t>
+  </si>
+  <si>
+    <t>circle_1-0.11-F40844</t>
+  </si>
+  <si>
+    <t>circle_1-0.11-F40845</t>
+  </si>
+  <si>
+    <t>circle_1-0.11-F40846</t>
+  </si>
+  <si>
+    <t>circle_1-0.11-F40847</t>
+  </si>
+  <si>
+    <t>circle_1-0.11-F40848</t>
+  </si>
+  <si>
+    <t>circle_1-0.11-F40849</t>
+  </si>
+  <si>
+    <t>circle_1-0.11-F40850</t>
+  </si>
+  <si>
+    <t>circle_1-0.11-F40851</t>
+  </si>
+  <si>
+    <t>circle_1-0.11-F40852</t>
+  </si>
+  <si>
+    <t>circle_1-0.11-F40853</t>
+  </si>
+  <si>
+    <t>circle_1-0.11-F40854</t>
+  </si>
+  <si>
+    <t>circle_1-0.11-F40855</t>
+  </si>
+  <si>
+    <t>circle_1-0.11-F40856</t>
+  </si>
+  <si>
+    <t>circle_1-0.11-F40857</t>
+  </si>
+  <si>
+    <t>circle_1-0.11-F40858</t>
+  </si>
+  <si>
+    <t>circle_1-0.11-F40859</t>
+  </si>
+  <si>
+    <t>circle_1-0.11-F40860</t>
+  </si>
+  <si>
+    <t>circle_1-0.11-F40861</t>
+  </si>
+  <si>
+    <t>circle_1-0.11-F40862</t>
+  </si>
+  <si>
+    <t>circle_1-0.11-F40863</t>
+  </si>
+  <si>
+    <t>circle_1-0.11-F40864</t>
+  </si>
+  <si>
+    <t>circle_1-0.11-F40865</t>
+  </si>
+  <si>
+    <t>circle_1-0.11-F40866</t>
+  </si>
+  <si>
+    <t>circle_1-0.11-F40867</t>
+  </si>
+  <si>
+    <t>circle_1-0.11-F40868</t>
+  </si>
+  <si>
+    <t>circle_1-0.11-F40869</t>
+  </si>
+  <si>
+    <t>circle_1-0.11-F40870</t>
+  </si>
+  <si>
+    <t>circle_1-0.11-F40871</t>
+  </si>
+  <si>
+    <t>circle_1-0.11-F40872</t>
+  </si>
+  <si>
+    <t>circle_1-0.11-F40873</t>
+  </si>
+  <si>
+    <t>circle_1-0.11-F40874</t>
+  </si>
+  <si>
+    <t>circle_1-0.11-F40875</t>
+  </si>
+  <si>
+    <t>circle_1-0.11-F40876</t>
+  </si>
+  <si>
+    <t>circle_1-0.11-F40877</t>
+  </si>
+  <si>
+    <t>circle_1-0.11-F40878</t>
+  </si>
+  <si>
+    <t>circle_1-0.11-F40879</t>
+  </si>
+  <si>
+    <t>circle_1-0.11-F40880</t>
+  </si>
+  <si>
+    <t>circle_1-0.11-F40881</t>
+  </si>
+  <si>
+    <t>circle_1-0.11-F40882</t>
+  </si>
+  <si>
+    <t>circle_1-0.11-F40883</t>
+  </si>
+  <si>
+    <t>circle_1-0.11-F40884</t>
+  </si>
+  <si>
+    <t>circle_1-0.11-F40885</t>
+  </si>
+  <si>
+    <t>circle_1-0.11-F40886</t>
+  </si>
+  <si>
+    <t>circle_1-0.11-F40887</t>
+  </si>
+  <si>
+    <t>circle_1-0.11-F40888</t>
+  </si>
+  <si>
+    <t>circle_1-0.11-F40889</t>
+  </si>
+  <si>
+    <t>circle_1-0.11-F40890</t>
+  </si>
+  <si>
+    <t>circle_1-0.11-F40891</t>
+  </si>
+  <si>
+    <t>circle_1-0.11-F40892</t>
+  </si>
+  <si>
+    <t>circle_1-0.11-F40893</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -286,151 +649,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <sz val="9"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <sz val="16"/>
+      <color theme="1"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -449,188 +683,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -638,253 +692,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -912,58 +724,14 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1225,30 +993,30 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R72"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="20"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.25" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="16.625" style="1" customWidth="1"/>
     <col min="3" max="3" width="40" style="2" customWidth="1"/>
     <col min="4" max="4" width="23.75" style="1" customWidth="1"/>
-    <col min="5" max="5" width="40.1083333333333" style="1" customWidth="1"/>
-    <col min="6" max="6" width="41.775" style="1" customWidth="1"/>
-    <col min="7" max="7" width="45.475" style="1" customWidth="1"/>
-    <col min="8" max="8" width="17.025" style="3" customWidth="1"/>
-    <col min="9" max="9" width="19.1666666666667" style="4" customWidth="1"/>
-    <col min="10" max="10" width="16.9" style="4" customWidth="1"/>
-    <col min="11" max="11" width="25.475" style="4" customWidth="1"/>
+    <col min="5" max="5" width="40.125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="41.75" style="1" customWidth="1"/>
+    <col min="7" max="7" width="45.5" style="1" customWidth="1"/>
+    <col min="8" max="8" width="17" style="3" customWidth="1"/>
+    <col min="9" max="9" width="19.125" style="4" customWidth="1"/>
+    <col min="10" max="10" width="16.875" style="4" customWidth="1"/>
+    <col min="11" max="11" width="25.5" style="4" customWidth="1"/>
     <col min="12" max="12" width="39.5" style="4" customWidth="1"/>
     <col min="13" max="13" width="18.125" style="4" customWidth="1"/>
     <col min="14" max="14" width="31.375" style="4" customWidth="1"/>
@@ -1259,7 +1027,7 @@
     <col min="19" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="1" spans="1:18">
+    <row r="1" spans="1:18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1315,7 +1083,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" customFormat="1" spans="1:18">
+    <row r="2" spans="1:18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>18</v>
       </c>
@@ -1371,7 +1139,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" spans="1:18">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
       <c r="B3" s="9">
         <v>1</v>
@@ -1382,20 +1150,20 @@
       <c r="D3" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>37</v>
+      <c r="E3" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>54</v>
       </c>
       <c r="G3" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="I3" s="9" t="s">
         <v>38</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="I3" s="9" t="s">
-        <v>40</v>
       </c>
       <c r="J3" s="9">
         <v>0</v>
@@ -1423,7 +1191,7 @@
       </c>
       <c r="R3" s="3"/>
     </row>
-    <row r="4" spans="2:18">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B4" s="9">
         <v>2</v>
       </c>
@@ -1434,19 +1202,19 @@
         <v>18</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>37</v>
+        <v>56</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>125</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I4" s="10" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="J4" s="4">
         <v>0</v>
@@ -1474,7 +1242,7 @@
       </c>
       <c r="R4" s="3"/>
     </row>
-    <row r="5" spans="2:18">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B5" s="9">
         <v>3</v>
       </c>
@@ -1485,19 +1253,19 @@
         <v>18</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>37</v>
+        <v>57</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>126</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I5" s="10" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="J5" s="4">
         <v>0</v>
@@ -1525,7 +1293,7 @@
       </c>
       <c r="R5" s="3"/>
     </row>
-    <row r="6" spans="2:18">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B6" s="9">
         <v>4</v>
       </c>
@@ -1536,19 +1304,19 @@
         <v>18</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>37</v>
+        <v>58</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>127</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I6" s="10" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="J6" s="4">
         <v>0</v>
@@ -1579,9 +1347,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B7" s="9">
         <v>5</v>
@@ -1593,19 +1361,19 @@
         <v>18</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>37</v>
+        <v>59</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>128</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I7" s="10" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="J7" s="4">
         <v>0</v>
@@ -1634,9 +1402,9 @@
       </c>
       <c r="R7" s="3"/>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B8" s="9">
         <v>6</v>
@@ -1648,19 +1416,19 @@
         <v>18</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>37</v>
+        <v>60</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>129</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I8" s="10" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="J8" s="4">
         <v>0</v>
@@ -1689,7 +1457,7 @@
       </c>
       <c r="R8" s="3"/>
     </row>
-    <row r="9" spans="2:18">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B9" s="9">
         <v>7</v>
       </c>
@@ -1700,19 +1468,19 @@
         <v>18</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>37</v>
+        <v>61</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>130</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I9" s="10" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="J9" s="4">
         <v>0</v>
@@ -1733,16 +1501,16 @@
         <v>0.4</v>
       </c>
       <c r="P9" s="3" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="Q9" s="3" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="R9" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="10" spans="2:18">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B10" s="9">
         <v>8</v>
       </c>
@@ -1753,19 +1521,19 @@
         <v>18</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>37</v>
+        <v>62</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>131</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I10" s="10" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="J10" s="4">
         <v>0</v>
@@ -1794,7 +1562,7 @@
       </c>
       <c r="R10" s="3"/>
     </row>
-    <row r="11" spans="2:18">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B11" s="9">
         <v>9</v>
       </c>
@@ -1805,19 +1573,19 @@
         <v>18</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>37</v>
+        <v>63</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>132</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H11" s="10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I11" s="10" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="J11" s="4">
         <v>0</v>
@@ -1846,7 +1614,7 @@
       </c>
       <c r="R11" s="3"/>
     </row>
-    <row r="12" spans="2:18">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B12" s="9">
         <v>10</v>
       </c>
@@ -1857,19 +1625,19 @@
         <v>18</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>56</v>
+        <v>64</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>133</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="H12" s="10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I12" s="10" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="J12" s="4">
         <v>0</v>
@@ -1897,10 +1665,10 @@
         <v>10</v>
       </c>
       <c r="R12" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="13" spans="2:18">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B13" s="9">
         <v>11</v>
       </c>
@@ -1911,19 +1679,19 @@
         <v>18</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="F13" s="9" t="s">
-        <v>37</v>
+        <v>65</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>134</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H13" s="10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I13" s="10" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="J13" s="4">
         <v>0</v>
@@ -1952,7 +1720,7 @@
       </c>
       <c r="R13" s="3"/>
     </row>
-    <row r="14" spans="2:18">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B14" s="9">
         <v>12</v>
       </c>
@@ -1963,19 +1731,19 @@
         <v>18</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="F14" s="9" t="s">
-        <v>37</v>
+        <v>66</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>135</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H14" s="10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I14" s="10" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="J14" s="4">
         <v>0</v>
@@ -2004,7 +1772,7 @@
       </c>
       <c r="R14" s="3"/>
     </row>
-    <row r="15" spans="2:18">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B15" s="9">
         <v>13</v>
       </c>
@@ -2015,19 +1783,19 @@
         <v>18</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="F15" s="9" t="s">
-        <v>37</v>
+        <v>67</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>136</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H15" s="10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I15" s="10" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="J15" s="4">
         <v>0.1</v>
@@ -2056,7 +1824,7 @@
       </c>
       <c r="R15" s="3"/>
     </row>
-    <row r="16" spans="2:18">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B16" s="9">
         <v>14</v>
       </c>
@@ -2067,19 +1835,19 @@
         <v>18</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="F16" s="9" t="s">
-        <v>37</v>
+        <v>68</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>137</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="H16" s="10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I16" s="10" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="J16" s="4">
         <v>0.1</v>
@@ -2107,10 +1875,10 @@
         <v>15</v>
       </c>
       <c r="R16" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="17" spans="2:18">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B17" s="9">
         <v>15</v>
       </c>
@@ -2121,19 +1889,19 @@
         <v>18</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="F17" s="9" t="s">
-        <v>37</v>
+        <v>69</v>
+      </c>
+      <c r="F17" s="13" t="s">
+        <v>138</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H17" s="10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I17" s="10" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="J17" s="4">
         <v>0.1</v>
@@ -2162,7 +1930,7 @@
       </c>
       <c r="R17" s="3"/>
     </row>
-    <row r="18" spans="2:18">
+    <row r="18" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B18" s="9">
         <v>16</v>
       </c>
@@ -2173,19 +1941,19 @@
         <v>18</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="F18" s="9" t="s">
-        <v>37</v>
+        <v>70</v>
+      </c>
+      <c r="F18" s="13" t="s">
+        <v>139</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H18" s="10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I18" s="10" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="J18" s="4">
         <v>0.1</v>
@@ -2214,7 +1982,7 @@
       </c>
       <c r="R18" s="3"/>
     </row>
-    <row r="19" spans="2:18">
+    <row r="19" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B19" s="9">
         <v>17</v>
       </c>
@@ -2225,19 +1993,19 @@
         <v>18</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="F19" s="9" t="s">
-        <v>37</v>
+        <v>71</v>
+      </c>
+      <c r="F19" s="13" t="s">
+        <v>140</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H19" s="10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I19" s="10" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="J19" s="4">
         <v>0.1</v>
@@ -2266,7 +2034,7 @@
       </c>
       <c r="R19" s="3"/>
     </row>
-    <row r="20" spans="2:18">
+    <row r="20" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B20" s="9">
         <v>18</v>
       </c>
@@ -2277,19 +2045,19 @@
         <v>18</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="F20" s="9" t="s">
-        <v>37</v>
+        <v>72</v>
+      </c>
+      <c r="F20" s="13" t="s">
+        <v>141</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H20" s="10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I20" s="10" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="J20" s="4">
         <v>0.1</v>
@@ -2318,7 +2086,7 @@
       </c>
       <c r="R20" s="3"/>
     </row>
-    <row r="21" spans="2:18">
+    <row r="21" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B21" s="9">
         <v>19</v>
       </c>
@@ -2329,19 +2097,19 @@
         <v>18</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="F21" s="9" t="s">
-        <v>37</v>
+        <v>73</v>
+      </c>
+      <c r="F21" s="13" t="s">
+        <v>142</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="H21" s="10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I21" s="10" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="J21" s="4">
         <v>0.1</v>
@@ -2369,10 +2137,10 @@
         <v>20</v>
       </c>
       <c r="R21" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="22" spans="2:18">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B22" s="9">
         <v>20</v>
       </c>
@@ -2383,19 +2151,19 @@
         <v>18</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="F22" s="9" t="s">
-        <v>37</v>
+        <v>74</v>
+      </c>
+      <c r="F22" s="13" t="s">
+        <v>143</v>
       </c>
       <c r="G22" s="9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H22" s="10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I22" s="10" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="J22" s="4">
         <v>0.1</v>
@@ -2424,7 +2192,7 @@
       </c>
       <c r="R22" s="3"/>
     </row>
-    <row r="23" spans="2:18">
+    <row r="23" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B23" s="9">
         <v>21</v>
       </c>
@@ -2435,19 +2203,19 @@
         <v>18</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="F23" s="9" t="s">
-        <v>37</v>
+        <v>75</v>
+      </c>
+      <c r="F23" s="13" t="s">
+        <v>144</v>
       </c>
       <c r="G23" s="9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H23" s="10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I23" s="10" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="J23" s="4">
         <v>0.1</v>
@@ -2476,7 +2244,7 @@
       </c>
       <c r="R23" s="3"/>
     </row>
-    <row r="24" spans="2:18">
+    <row r="24" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B24" s="9">
         <v>22</v>
       </c>
@@ -2487,19 +2255,19 @@
         <v>18</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="F24" s="9" t="s">
-        <v>37</v>
+        <v>76</v>
+      </c>
+      <c r="F24" s="13" t="s">
+        <v>145</v>
       </c>
       <c r="G24" s="9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H24" s="10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I24" s="10" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="J24" s="4">
         <v>0.1</v>
@@ -2528,7 +2296,7 @@
       </c>
       <c r="R24" s="3"/>
     </row>
-    <row r="25" spans="2:18">
+    <row r="25" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B25" s="9">
         <v>23</v>
       </c>
@@ -2539,23 +2307,23 @@
         <v>18</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="F25" s="9" t="s">
-        <v>37</v>
+        <v>77</v>
+      </c>
+      <c r="F25" s="13" t="s">
+        <v>146</v>
       </c>
       <c r="G25" s="9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H25" s="10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I25" s="10" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="J25" s="4">
         <f>J15+0.05</f>
-        <v>0.15</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="K25" s="4">
         <v>45</v>
@@ -2581,7 +2349,7 @@
       </c>
       <c r="R25" s="3"/>
     </row>
-    <row r="26" spans="2:18">
+    <row r="26" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B26" s="9">
         <v>24</v>
       </c>
@@ -2592,23 +2360,23 @@
         <v>18</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="F26" s="9" t="s">
-        <v>56</v>
+        <v>78</v>
+      </c>
+      <c r="F26" s="13" t="s">
+        <v>147</v>
       </c>
       <c r="G26" s="9" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="H26" s="10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I26" s="10" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="J26" s="4">
         <f t="shared" ref="J26:J72" si="1">J16+0.05</f>
-        <v>0.15</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="K26" s="4">
         <v>47</v>
@@ -2633,10 +2401,10 @@
         <v>25</v>
       </c>
       <c r="R26" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="27" spans="2:18">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="27" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B27" s="9">
         <v>25</v>
       </c>
@@ -2647,23 +2415,23 @@
         <v>18</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="F27" s="9" t="s">
-        <v>37</v>
+        <v>79</v>
+      </c>
+      <c r="F27" s="13" t="s">
+        <v>148</v>
       </c>
       <c r="G27" s="9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H27" s="10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I27" s="10" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="J27" s="4">
         <f t="shared" si="1"/>
-        <v>0.15</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="K27" s="4">
         <v>49</v>
@@ -2689,7 +2457,7 @@
       </c>
       <c r="R27" s="3"/>
     </row>
-    <row r="28" spans="2:18">
+    <row r="28" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B28" s="9">
         <v>26</v>
       </c>
@@ -2700,23 +2468,23 @@
         <v>18</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="F28" s="9" t="s">
-        <v>37</v>
+        <v>80</v>
+      </c>
+      <c r="F28" s="13" t="s">
+        <v>149</v>
       </c>
       <c r="G28" s="9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H28" s="10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I28" s="10" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="J28" s="4">
         <f t="shared" si="1"/>
-        <v>0.15</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="K28" s="4">
         <v>51</v>
@@ -2742,7 +2510,7 @@
       </c>
       <c r="R28" s="3"/>
     </row>
-    <row r="29" spans="2:18">
+    <row r="29" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B29" s="9">
         <v>27</v>
       </c>
@@ -2753,23 +2521,23 @@
         <v>18</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="F29" s="9" t="s">
-        <v>37</v>
+        <v>81</v>
+      </c>
+      <c r="F29" s="13" t="s">
+        <v>150</v>
       </c>
       <c r="G29" s="9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H29" s="10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I29" s="10" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="J29" s="4">
         <f t="shared" si="1"/>
-        <v>0.15</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="K29" s="4">
         <v>53</v>
@@ -2795,7 +2563,7 @@
       </c>
       <c r="R29" s="3"/>
     </row>
-    <row r="30" spans="2:18">
+    <row r="30" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B30" s="9">
         <v>28</v>
       </c>
@@ -2806,23 +2574,23 @@
         <v>18</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="F30" s="9" t="s">
-        <v>37</v>
+        <v>82</v>
+      </c>
+      <c r="F30" s="13" t="s">
+        <v>151</v>
       </c>
       <c r="G30" s="9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H30" s="10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I30" s="10" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="J30" s="4">
         <f t="shared" si="1"/>
-        <v>0.15</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="K30" s="4">
         <v>55</v>
@@ -2848,7 +2616,7 @@
       </c>
       <c r="R30" s="3"/>
     </row>
-    <row r="31" spans="2:18">
+    <row r="31" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B31" s="9">
         <v>29</v>
       </c>
@@ -2859,23 +2627,23 @@
         <v>18</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="F31" s="9" t="s">
-        <v>37</v>
+        <v>83</v>
+      </c>
+      <c r="F31" s="13" t="s">
+        <v>152</v>
       </c>
       <c r="G31" s="9" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="H31" s="10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I31" s="10" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="J31" s="4">
         <f t="shared" si="1"/>
-        <v>0.15</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="K31" s="4">
         <v>57</v>
@@ -2900,10 +2668,10 @@
         <v>30</v>
       </c>
       <c r="R31" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="32" spans="2:18">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="32" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B32" s="9">
         <v>30</v>
       </c>
@@ -2914,23 +2682,23 @@
         <v>18</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="F32" s="9" t="s">
-        <v>37</v>
+        <v>84</v>
+      </c>
+      <c r="F32" s="13" t="s">
+        <v>153</v>
       </c>
       <c r="G32" s="9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H32" s="10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I32" s="10" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="J32" s="4">
         <f t="shared" si="1"/>
-        <v>0.15</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="K32" s="4">
         <v>59</v>
@@ -2956,7 +2724,7 @@
       </c>
       <c r="R32" s="3"/>
     </row>
-    <row r="33" spans="2:18">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B33" s="9">
         <v>31</v>
       </c>
@@ -2967,23 +2735,23 @@
         <v>18</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="F33" s="9" t="s">
-        <v>37</v>
+        <v>85</v>
+      </c>
+      <c r="F33" s="13" t="s">
+        <v>154</v>
       </c>
       <c r="G33" s="9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H33" s="10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I33" s="10" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="J33" s="4">
         <f t="shared" si="1"/>
-        <v>0.15</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="K33" s="4">
         <v>61</v>
@@ -3009,7 +2777,7 @@
       </c>
       <c r="R33" s="3"/>
     </row>
-    <row r="34" spans="2:18">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B34" s="9">
         <v>32</v>
       </c>
@@ -3020,23 +2788,23 @@
         <v>18</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="F34" s="9" t="s">
-        <v>37</v>
+        <v>86</v>
+      </c>
+      <c r="F34" s="13" t="s">
+        <v>155</v>
       </c>
       <c r="G34" s="9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H34" s="10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I34" s="10" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="J34" s="4">
         <f t="shared" si="1"/>
-        <v>0.15</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="K34" s="4">
         <v>63</v>
@@ -3062,7 +2830,7 @@
       </c>
       <c r="R34" s="3"/>
     </row>
-    <row r="35" spans="2:18">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B35" s="9">
         <v>33</v>
       </c>
@@ -3073,19 +2841,19 @@
         <v>18</v>
       </c>
       <c r="E35" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="F35" s="9" t="s">
-        <v>37</v>
+        <v>87</v>
+      </c>
+      <c r="F35" s="13" t="s">
+        <v>156</v>
       </c>
       <c r="G35" s="9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H35" s="10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I35" s="10" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="J35" s="4">
         <f t="shared" si="1"/>
@@ -3115,7 +2883,7 @@
       </c>
       <c r="R35" s="3"/>
     </row>
-    <row r="36" spans="2:18">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B36" s="9">
         <v>34</v>
       </c>
@@ -3126,19 +2894,19 @@
         <v>18</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="F36" s="9" t="s">
-        <v>37</v>
+        <v>88</v>
+      </c>
+      <c r="F36" s="13" t="s">
+        <v>157</v>
       </c>
       <c r="G36" s="9" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="H36" s="10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I36" s="10" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="J36" s="4">
         <f t="shared" si="1"/>
@@ -3170,7 +2938,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="2:18">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B37" s="9">
         <v>35</v>
       </c>
@@ -3181,19 +2949,19 @@
         <v>18</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="F37" s="9" t="s">
-        <v>37</v>
+        <v>89</v>
+      </c>
+      <c r="F37" s="13" t="s">
+        <v>158</v>
       </c>
       <c r="G37" s="9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H37" s="10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I37" s="10" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="J37" s="4">
         <f t="shared" si="1"/>
@@ -3223,7 +2991,7 @@
       </c>
       <c r="R37" s="3"/>
     </row>
-    <row r="38" s="1" customFormat="1" spans="1:18">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A38" s="2"/>
       <c r="B38" s="9">
         <v>36</v>
@@ -3235,19 +3003,19 @@
         <v>18</v>
       </c>
       <c r="E38" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="F38" s="9" t="s">
-        <v>37</v>
+        <v>90</v>
+      </c>
+      <c r="F38" s="13" t="s">
+        <v>159</v>
       </c>
       <c r="G38" s="9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H38" s="9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I38" s="10" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="J38" s="4">
         <f t="shared" si="1"/>
@@ -3277,7 +3045,7 @@
       </c>
       <c r="R38" s="12"/>
     </row>
-    <row r="39" spans="2:18">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B39" s="9">
         <v>37</v>
       </c>
@@ -3288,19 +3056,19 @@
         <v>18</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="F39" s="9" t="s">
-        <v>37</v>
+        <v>91</v>
+      </c>
+      <c r="F39" s="13" t="s">
+        <v>160</v>
       </c>
       <c r="G39" s="9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H39" s="10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I39" s="10" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="J39" s="4">
         <f t="shared" si="1"/>
@@ -3330,7 +3098,7 @@
       </c>
       <c r="R39" s="3"/>
     </row>
-    <row r="40" spans="2:18">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B40" s="9">
         <v>38</v>
       </c>
@@ -3341,19 +3109,19 @@
         <v>18</v>
       </c>
       <c r="E40" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="F40" s="9" t="s">
-        <v>37</v>
+        <v>92</v>
+      </c>
+      <c r="F40" s="13" t="s">
+        <v>161</v>
       </c>
       <c r="G40" s="9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H40" s="10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I40" s="10" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="J40" s="4">
         <f t="shared" si="1"/>
@@ -3383,7 +3151,7 @@
       </c>
       <c r="R40" s="3"/>
     </row>
-    <row r="41" spans="2:18">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B41" s="9">
         <v>39</v>
       </c>
@@ -3394,19 +3162,19 @@
         <v>18</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="F41" s="9" t="s">
-        <v>56</v>
+        <v>93</v>
+      </c>
+      <c r="F41" s="13" t="s">
+        <v>162</v>
       </c>
       <c r="G41" s="9" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="H41" s="10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I41" s="10" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="J41" s="4">
         <f t="shared" si="1"/>
@@ -3438,7 +3206,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:18">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A42" s="4"/>
       <c r="B42" s="9">
         <v>40</v>
@@ -3450,19 +3218,19 @@
         <v>18</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="F42" s="9" t="s">
-        <v>37</v>
+        <v>94</v>
+      </c>
+      <c r="F42" s="13" t="s">
+        <v>163</v>
       </c>
       <c r="G42" s="9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H42" s="10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I42" s="10" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="J42" s="4">
         <f t="shared" si="1"/>
@@ -3492,7 +3260,7 @@
       </c>
       <c r="R42" s="3"/>
     </row>
-    <row r="43" spans="1:18">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A43" s="4"/>
       <c r="B43" s="9">
         <v>41</v>
@@ -3504,19 +3272,19 @@
         <v>18</v>
       </c>
       <c r="E43" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="F43" s="9" t="s">
-        <v>37</v>
+        <v>95</v>
+      </c>
+      <c r="F43" s="13" t="s">
+        <v>164</v>
       </c>
       <c r="G43" s="9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H43" s="10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I43" s="10" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="J43" s="4">
         <f t="shared" si="1"/>
@@ -3546,7 +3314,7 @@
       </c>
       <c r="R43" s="3"/>
     </row>
-    <row r="44" spans="2:18">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B44" s="9">
         <v>42</v>
       </c>
@@ -3557,19 +3325,19 @@
         <v>18</v>
       </c>
       <c r="E44" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="F44" s="9" t="s">
-        <v>37</v>
+        <v>96</v>
+      </c>
+      <c r="F44" s="13" t="s">
+        <v>165</v>
       </c>
       <c r="G44" s="9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H44" s="10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I44" s="10" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="J44" s="4">
         <f t="shared" si="1"/>
@@ -3599,7 +3367,7 @@
       </c>
       <c r="R44" s="3"/>
     </row>
-    <row r="45" spans="2:18">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B45" s="9">
         <v>43</v>
       </c>
@@ -3610,19 +3378,19 @@
         <v>18</v>
       </c>
       <c r="E45" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="F45" s="9" t="s">
-        <v>37</v>
+        <v>97</v>
+      </c>
+      <c r="F45" s="13" t="s">
+        <v>166</v>
       </c>
       <c r="G45" s="9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H45" s="10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I45" s="10" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="J45" s="4">
         <f t="shared" si="1"/>
@@ -3652,7 +3420,7 @@
       </c>
       <c r="R45" s="3"/>
     </row>
-    <row r="46" spans="2:18">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B46" s="9">
         <v>44</v>
       </c>
@@ -3663,19 +3431,19 @@
         <v>18</v>
       </c>
       <c r="E46" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="F46" s="9" t="s">
-        <v>37</v>
+        <v>98</v>
+      </c>
+      <c r="F46" s="13" t="s">
+        <v>167</v>
       </c>
       <c r="G46" s="9" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="H46" s="10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I46" s="10" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="J46" s="4">
         <f t="shared" si="1"/>
@@ -3707,7 +3475,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="2:18">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B47" s="9">
         <v>45</v>
       </c>
@@ -3718,19 +3486,19 @@
         <v>18</v>
       </c>
       <c r="E47" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="F47" s="9" t="s">
-        <v>37</v>
+        <v>99</v>
+      </c>
+      <c r="F47" s="13" t="s">
+        <v>168</v>
       </c>
       <c r="G47" s="9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H47" s="10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I47" s="10" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="J47" s="4">
         <f t="shared" si="1"/>
@@ -3760,7 +3528,7 @@
       </c>
       <c r="R47" s="3"/>
     </row>
-    <row r="48" spans="2:18">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B48" s="9">
         <v>46</v>
       </c>
@@ -3771,19 +3539,19 @@
         <v>18</v>
       </c>
       <c r="E48" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="F48" s="9" t="s">
-        <v>37</v>
+        <v>100</v>
+      </c>
+      <c r="F48" s="13" t="s">
+        <v>169</v>
       </c>
       <c r="G48" s="9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H48" s="10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I48" s="10" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="J48" s="4">
         <f t="shared" si="1"/>
@@ -3813,7 +3581,7 @@
       </c>
       <c r="R48" s="3"/>
     </row>
-    <row r="49" spans="2:18">
+    <row r="49" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B49" s="9">
         <v>47</v>
       </c>
@@ -3824,19 +3592,19 @@
         <v>18</v>
       </c>
       <c r="E49" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="F49" s="9" t="s">
-        <v>37</v>
+        <v>101</v>
+      </c>
+      <c r="F49" s="13" t="s">
+        <v>170</v>
       </c>
       <c r="G49" s="9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H49" s="10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I49" s="10" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="J49" s="4">
         <f t="shared" si="1"/>
@@ -3866,7 +3634,7 @@
       </c>
       <c r="R49" s="3"/>
     </row>
-    <row r="50" spans="2:18">
+    <row r="50" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B50" s="9">
         <v>48</v>
       </c>
@@ -3877,19 +3645,19 @@
         <v>18</v>
       </c>
       <c r="E50" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="F50" s="9" t="s">
-        <v>37</v>
+        <v>102</v>
+      </c>
+      <c r="F50" s="13" t="s">
+        <v>171</v>
       </c>
       <c r="G50" s="9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H50" s="10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I50" s="10" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="J50" s="4">
         <f t="shared" si="1"/>
@@ -3919,7 +3687,7 @@
       </c>
       <c r="R50" s="3"/>
     </row>
-    <row r="51" spans="2:18">
+    <row r="51" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B51" s="9">
         <v>49</v>
       </c>
@@ -3930,19 +3698,19 @@
         <v>18</v>
       </c>
       <c r="E51" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="F51" s="9" t="s">
-        <v>37</v>
+        <v>103</v>
+      </c>
+      <c r="F51" s="13" t="s">
+        <v>172</v>
       </c>
       <c r="G51" s="9" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="H51" s="10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I51" s="10" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="J51" s="4">
         <f t="shared" si="1"/>
@@ -3971,10 +3739,10 @@
         <v>50</v>
       </c>
       <c r="R51" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="52" spans="2:18">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="52" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B52" s="9">
         <v>50</v>
       </c>
@@ -3985,19 +3753,19 @@
         <v>18</v>
       </c>
       <c r="E52" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="F52" s="9" t="s">
-        <v>37</v>
+        <v>104</v>
+      </c>
+      <c r="F52" s="13" t="s">
+        <v>173</v>
       </c>
       <c r="G52" s="9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H52" s="10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I52" s="10" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="J52" s="4">
         <f t="shared" si="1"/>
@@ -4027,7 +3795,7 @@
       </c>
       <c r="R52" s="3"/>
     </row>
-    <row r="53" spans="2:18">
+    <row r="53" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B53" s="9">
         <v>51</v>
       </c>
@@ -4038,19 +3806,19 @@
         <v>18</v>
       </c>
       <c r="E53" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="F53" s="9" t="s">
-        <v>37</v>
+        <v>105</v>
+      </c>
+      <c r="F53" s="13" t="s">
+        <v>174</v>
       </c>
       <c r="G53" s="9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H53" s="10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I53" s="10" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="J53" s="4">
         <f t="shared" si="1"/>
@@ -4080,7 +3848,7 @@
       </c>
       <c r="R53" s="3"/>
     </row>
-    <row r="54" spans="2:18">
+    <row r="54" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B54" s="9">
         <v>52</v>
       </c>
@@ -4091,19 +3859,19 @@
         <v>18</v>
       </c>
       <c r="E54" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="F54" s="9" t="s">
-        <v>37</v>
+        <v>106</v>
+      </c>
+      <c r="F54" s="13" t="s">
+        <v>175</v>
       </c>
       <c r="G54" s="9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H54" s="10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I54" s="10" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="J54" s="4">
         <f t="shared" si="1"/>
@@ -4133,7 +3901,7 @@
       </c>
       <c r="R54" s="3"/>
     </row>
-    <row r="55" spans="2:18">
+    <row r="55" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B55" s="9">
         <v>53</v>
       </c>
@@ -4144,19 +3912,19 @@
         <v>18</v>
       </c>
       <c r="E55" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="F55" s="9" t="s">
-        <v>37</v>
+        <v>107</v>
+      </c>
+      <c r="F55" s="13" t="s">
+        <v>176</v>
       </c>
       <c r="G55" s="9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H55" s="10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I55" s="10" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="J55" s="4">
         <f t="shared" si="1"/>
@@ -4186,7 +3954,7 @@
       </c>
       <c r="R55" s="3"/>
     </row>
-    <row r="56" spans="2:18">
+    <row r="56" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B56" s="9">
         <v>54</v>
       </c>
@@ -4197,19 +3965,19 @@
         <v>18</v>
       </c>
       <c r="E56" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="F56" s="9" t="s">
-        <v>37</v>
+        <v>108</v>
+      </c>
+      <c r="F56" s="13" t="s">
+        <v>177</v>
       </c>
       <c r="G56" s="9" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="H56" s="10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I56" s="10" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="J56" s="4">
         <f t="shared" si="1"/>
@@ -4241,7 +4009,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="2:18">
+    <row r="57" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B57" s="9">
         <v>55</v>
       </c>
@@ -4252,19 +4020,19 @@
         <v>18</v>
       </c>
       <c r="E57" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="F57" s="9" t="s">
-        <v>37</v>
+        <v>109</v>
+      </c>
+      <c r="F57" s="13" t="s">
+        <v>178</v>
       </c>
       <c r="G57" s="9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H57" s="10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I57" s="10" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="J57" s="4">
         <f t="shared" si="1"/>
@@ -4294,7 +4062,7 @@
       </c>
       <c r="R57" s="3"/>
     </row>
-    <row r="58" spans="2:18">
+    <row r="58" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B58" s="9">
         <v>56</v>
       </c>
@@ -4305,19 +4073,19 @@
         <v>18</v>
       </c>
       <c r="E58" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="F58" s="9" t="s">
-        <v>37</v>
+        <v>110</v>
+      </c>
+      <c r="F58" s="13" t="s">
+        <v>179</v>
       </c>
       <c r="G58" s="9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H58" s="10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I58" s="10" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="J58" s="4">
         <f t="shared" si="1"/>
@@ -4347,7 +4115,7 @@
       </c>
       <c r="R58" s="3"/>
     </row>
-    <row r="59" spans="2:18">
+    <row r="59" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B59" s="9">
         <v>57</v>
       </c>
@@ -4358,19 +4126,19 @@
         <v>18</v>
       </c>
       <c r="E59" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="F59" s="9" t="s">
-        <v>37</v>
+        <v>111</v>
+      </c>
+      <c r="F59" s="13" t="s">
+        <v>180</v>
       </c>
       <c r="G59" s="9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H59" s="10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I59" s="10" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="J59" s="4">
         <f t="shared" si="1"/>
@@ -4400,7 +4168,7 @@
       </c>
       <c r="R59" s="3"/>
     </row>
-    <row r="60" spans="2:18">
+    <row r="60" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B60" s="9">
         <v>58</v>
       </c>
@@ -4411,19 +4179,19 @@
         <v>18</v>
       </c>
       <c r="E60" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="F60" s="9" t="s">
-        <v>37</v>
+        <v>112</v>
+      </c>
+      <c r="F60" s="13" t="s">
+        <v>181</v>
       </c>
       <c r="G60" s="9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H60" s="10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I60" s="10" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="J60" s="4">
         <f t="shared" si="1"/>
@@ -4453,7 +4221,7 @@
       </c>
       <c r="R60" s="3"/>
     </row>
-    <row r="61" spans="2:18">
+    <row r="61" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B61" s="9">
         <v>59</v>
       </c>
@@ -4464,19 +4232,19 @@
         <v>18</v>
       </c>
       <c r="E61" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="F61" s="9" t="s">
-        <v>37</v>
+        <v>113</v>
+      </c>
+      <c r="F61" s="13" t="s">
+        <v>182</v>
       </c>
       <c r="G61" s="9" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="H61" s="10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I61" s="10" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="J61" s="4">
         <f t="shared" si="1"/>
@@ -4508,7 +4276,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="2:18">
+    <row r="62" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B62" s="9">
         <v>60</v>
       </c>
@@ -4519,19 +4287,19 @@
         <v>18</v>
       </c>
       <c r="E62" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="F62" s="9" t="s">
-        <v>37</v>
+        <v>114</v>
+      </c>
+      <c r="F62" s="13" t="s">
+        <v>183</v>
       </c>
       <c r="G62" s="9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H62" s="10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I62" s="10" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="J62" s="4">
         <f t="shared" si="1"/>
@@ -4561,7 +4329,7 @@
       </c>
       <c r="R62" s="3"/>
     </row>
-    <row r="63" spans="2:18">
+    <row r="63" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B63" s="9">
         <v>61</v>
       </c>
@@ -4572,19 +4340,19 @@
         <v>18</v>
       </c>
       <c r="E63" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="F63" s="9" t="s">
-        <v>37</v>
+        <v>115</v>
+      </c>
+      <c r="F63" s="13" t="s">
+        <v>184</v>
       </c>
       <c r="G63" s="9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H63" s="10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I63" s="10" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="J63" s="4">
         <f t="shared" si="1"/>
@@ -4614,7 +4382,7 @@
       </c>
       <c r="R63" s="3"/>
     </row>
-    <row r="64" spans="2:18">
+    <row r="64" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B64" s="9">
         <v>62</v>
       </c>
@@ -4625,19 +4393,19 @@
         <v>18</v>
       </c>
       <c r="E64" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="F64" s="9" t="s">
-        <v>37</v>
+        <v>116</v>
+      </c>
+      <c r="F64" s="13" t="s">
+        <v>185</v>
       </c>
       <c r="G64" s="9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H64" s="10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I64" s="10" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="J64" s="4">
         <f t="shared" si="1"/>
@@ -4667,7 +4435,7 @@
       </c>
       <c r="R64" s="3"/>
     </row>
-    <row r="65" spans="2:18">
+    <row r="65" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B65" s="9">
         <v>63</v>
       </c>
@@ -4678,19 +4446,19 @@
         <v>18</v>
       </c>
       <c r="E65" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="F65" s="9" t="s">
-        <v>37</v>
+        <v>117</v>
+      </c>
+      <c r="F65" s="13" t="s">
+        <v>186</v>
       </c>
       <c r="G65" s="9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H65" s="10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I65" s="10" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="J65" s="4">
         <f t="shared" si="1"/>
@@ -4720,7 +4488,7 @@
       </c>
       <c r="R65" s="3"/>
     </row>
-    <row r="66" spans="2:18">
+    <row r="66" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B66" s="9">
         <v>64</v>
       </c>
@@ -4731,19 +4499,19 @@
         <v>18</v>
       </c>
       <c r="E66" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="F66" s="9" t="s">
-        <v>56</v>
+        <v>118</v>
+      </c>
+      <c r="F66" s="13" t="s">
+        <v>187</v>
       </c>
       <c r="G66" s="9" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="H66" s="10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I66" s="10" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="J66" s="4">
         <f t="shared" si="1"/>
@@ -4775,7 +4543,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="2:18">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B67" s="9">
         <v>65</v>
       </c>
@@ -4786,19 +4554,19 @@
         <v>18</v>
       </c>
       <c r="E67" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="F67" s="9" t="s">
-        <v>37</v>
+        <v>119</v>
+      </c>
+      <c r="F67" s="13" t="s">
+        <v>188</v>
       </c>
       <c r="G67" s="9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H67" s="10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I67" s="10" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="J67" s="4">
         <f t="shared" si="1"/>
@@ -4828,7 +4596,7 @@
       </c>
       <c r="R67" s="3"/>
     </row>
-    <row r="68" spans="2:18">
+    <row r="68" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B68" s="9">
         <v>66</v>
       </c>
@@ -4839,19 +4607,19 @@
         <v>18</v>
       </c>
       <c r="E68" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="F68" s="9" t="s">
-        <v>37</v>
+        <v>120</v>
+      </c>
+      <c r="F68" s="13" t="s">
+        <v>189</v>
       </c>
       <c r="G68" s="9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H68" s="10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I68" s="10" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="J68" s="4">
         <f t="shared" si="1"/>
@@ -4881,7 +4649,7 @@
       </c>
       <c r="R68" s="3"/>
     </row>
-    <row r="69" spans="2:18">
+    <row r="69" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B69" s="9">
         <v>67</v>
       </c>
@@ -4892,19 +4660,19 @@
         <v>18</v>
       </c>
       <c r="E69" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="F69" s="9" t="s">
-        <v>37</v>
+        <v>121</v>
+      </c>
+      <c r="F69" s="13" t="s">
+        <v>190</v>
       </c>
       <c r="G69" s="9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H69" s="10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I69" s="10" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="J69" s="4">
         <f t="shared" si="1"/>
@@ -4934,7 +4702,7 @@
       </c>
       <c r="R69" s="3"/>
     </row>
-    <row r="70" spans="2:18">
+    <row r="70" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B70" s="9">
         <v>68</v>
       </c>
@@ -4945,19 +4713,19 @@
         <v>18</v>
       </c>
       <c r="E70" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="F70" s="9" t="s">
-        <v>37</v>
+        <v>122</v>
+      </c>
+      <c r="F70" s="13" t="s">
+        <v>191</v>
       </c>
       <c r="G70" s="9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H70" s="10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I70" s="10" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="J70" s="4">
         <f t="shared" si="1"/>
@@ -4987,7 +4755,7 @@
       </c>
       <c r="R70" s="3"/>
     </row>
-    <row r="71" spans="2:18">
+    <row r="71" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B71" s="9">
         <v>69</v>
       </c>
@@ -4998,19 +4766,19 @@
         <v>18</v>
       </c>
       <c r="E71" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="F71" s="9" t="s">
-        <v>37</v>
+        <v>123</v>
+      </c>
+      <c r="F71" s="13" t="s">
+        <v>192</v>
       </c>
       <c r="G71" s="9" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="H71" s="10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I71" s="10" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="J71" s="4">
         <f t="shared" si="1"/>
@@ -5042,7 +4810,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="72" spans="2:18">
+    <row r="72" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B72" s="9">
         <v>70</v>
       </c>
@@ -5053,19 +4821,19 @@
         <v>18</v>
       </c>
       <c r="E72" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="F72" s="9" t="s">
-        <v>37</v>
+        <v>124</v>
+      </c>
+      <c r="F72" s="13" t="s">
+        <v>193</v>
       </c>
       <c r="G72" s="9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H72" s="10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I72" s="10" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="J72" s="4">
         <f t="shared" si="1"/>
@@ -5096,13 +4864,13 @@
       <c r="R72" s="3"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G5 G6 G9 G10 G11 G12 G16 G21 G26 G31 G36 G37 G40 G41 G46 G51 G56 G61 G66 G71 G72 G3:G4 G7:G8 G13:G15 G17:G20 G22:G25 G27:G30 G32:G35 G38:G39 G42:G45 G47:G50 G52:G55 G57:G60 G62:G65 G67:G70">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G72">
       <formula1>$A$7:$A$8</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>